--- a/Supporting-Material/中交天和传输文件-参数选取.xlsx
+++ b/Supporting-Material/中交天和传输文件-参数选取.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cswof\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7803A72-A47B-42BC-A238-12C18383CD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2220" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27810" windowHeight="14250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1439,11 +1420,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1456,8 +1450,152 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1472,12 +1610,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1500,43 +1824,323 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1547,32 +2151,26 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>439664</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>49979</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>132529</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4671060" y="420370"/>
-          <a:ext cx="5927725" cy="2964815"/>
+          <a:off x="6453505" y="449580"/>
+          <a:ext cx="7830820" cy="3111500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1836,25 +2434,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="30.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="30.2666666666667" customWidth="1"/>
+    <col min="4" max="4" width="16.0866666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1876,11 +2474,11 @@
         <v>4</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1894,7 +2492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1908,11 +2506,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
@@ -1922,11 +2520,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
@@ -1936,11 +2534,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
@@ -1950,11 +2548,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
@@ -1964,11 +2562,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
@@ -1978,11 +2576,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
@@ -1992,11 +2590,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
@@ -2006,11 +2604,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
@@ -2020,11 +2618,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
@@ -2034,7 +2632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2048,7 +2646,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2062,7 +2660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2080,7 +2678,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C17" t="s">
@@ -2094,7 +2692,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C18" t="s">
@@ -2108,7 +2706,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C19" t="s">
@@ -2122,7 +2720,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C20" t="s">
@@ -2276,7 +2874,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C31" t="s">
@@ -2290,7 +2888,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C32" t="s">
@@ -2304,7 +2902,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C33" t="s">
@@ -2318,7 +2916,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C34" t="s">
@@ -2514,7 +3112,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C48" t="s">
@@ -2528,7 +3126,7 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C49" t="s">
@@ -2542,7 +3140,7 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C50" t="s">
@@ -2556,7 +3154,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C51" t="s">
@@ -2570,7 +3168,7 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C52" t="s">
@@ -2584,7 +3182,7 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C53" t="s">
@@ -2598,7 +3196,7 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C54" t="s">
@@ -2612,7 +3210,7 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C55" t="s">
@@ -2626,7 +3224,7 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C56" t="s">
@@ -2640,7 +3238,7 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C57" t="s">
@@ -2920,7 +3518,7 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C77" t="s">
@@ -2934,7 +3532,7 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C78" t="s">
@@ -2948,7 +3546,7 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C79" t="s">
@@ -3536,7 +4134,7 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>259</v>
       </c>
       <c r="C121" t="s">
@@ -4972,6 +5570,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>